--- a/output/1Y_P33_KFSDIV.xlsx
+++ b/output/1Y_P33_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.3976</v>
       </c>
       <c r="C2" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D2" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.9013</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="F3" s="1">
-        <v>775.1097</v>
+        <v>773.5626999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0406</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.3527</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E4" s="1">
-        <v>1581.7174</v>
+        <v>1578.5601</v>
       </c>
       <c r="F4" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="H4" s="1">
-        <v>21120.198</v>
+        <v>21035.8925</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21120.198</v>
+        <v>21035.8925</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6445</v>
+        <v>12.6698</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.8804</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E5" s="1">
-        <v>2330.6296</v>
+        <v>2325.9722</v>
       </c>
       <c r="F5" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="H5" s="1">
-        <v>32350.0713</v>
+        <v>32220.7629</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32350.0713</v>
+        <v>32220.7629</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8721</v>
+        <v>12.8978</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>711.7728</v>
+        <v>710.3521</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9288.227199999999</v>
+        <v>-9289.6479</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0395</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.6268</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E6" s="1">
-        <v>3051.0699</v>
+        <v>3044.9725</v>
       </c>
       <c r="F6" s="1">
-        <v>689.7593000000001</v>
+        <v>688.3683</v>
       </c>
       <c r="H6" s="1">
-        <v>44627.3899</v>
+        <v>44449.291</v>
       </c>
       <c r="I6" s="1">
-        <v>711.7728</v>
+        <v>710.3521</v>
       </c>
       <c r="J6" s="1">
-        <v>45339.1627</v>
+        <v>45159.6431</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1102</v>
+        <v>13.1364</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10088.9716</v>
+        <v>-10088.794</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0706</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>15.3636</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E7" s="1">
-        <v>3740.8293</v>
+        <v>3733.3408</v>
       </c>
       <c r="F7" s="1">
-        <v>656.6802</v>
+        <v>655.3548</v>
       </c>
       <c r="H7" s="1">
-        <v>57472.6045</v>
+        <v>57242.941</v>
       </c>
       <c r="I7" s="1">
-        <v>622.8012</v>
+        <v>621.5581</v>
       </c>
       <c r="J7" s="1">
-        <v>58095.4057</v>
+        <v>57864.499</v>
       </c>
       <c r="K7" s="1">
-        <v>50088.9716</v>
+        <v>50088.794</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3898</v>
+        <v>13.4166</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10088.9716</v>
+        <v>-10088.794</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0498</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.8711</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E8" s="1">
-        <v>4397.5094</v>
+        <v>4388.6956</v>
       </c>
       <c r="F8" s="1">
-        <v>727.3375</v>
+        <v>725.87</v>
       </c>
       <c r="H8" s="1">
-        <v>60998.2933</v>
+        <v>60754.4686</v>
       </c>
       <c r="I8" s="1">
-        <v>533.8296</v>
+        <v>532.764</v>
       </c>
       <c r="J8" s="1">
-        <v>61532.1229</v>
+        <v>61287.2326</v>
       </c>
       <c r="K8" s="1">
-        <v>60177.9432</v>
+        <v>60177.588</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6846</v>
+        <v>13.712</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1683.3732</v>
+        <v>1680.0034</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8405.598400000001</v>
+        <v>-8408.7907</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0964</v>
+        <v>-0.0969</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>14.1252</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E9" s="1">
-        <v>5124.847</v>
+        <v>5114.5656</v>
       </c>
       <c r="F9" s="1">
-        <v>738.0884</v>
+        <v>736.5524</v>
       </c>
       <c r="H9" s="1">
-        <v>72389.48850000001</v>
+        <v>72100.0306</v>
       </c>
       <c r="I9" s="1">
-        <v>2128.2312</v>
+        <v>2123.9734</v>
       </c>
       <c r="J9" s="1">
-        <v>74517.7197</v>
+        <v>74224.004</v>
       </c>
       <c r="K9" s="1">
-        <v>70266.9148</v>
+        <v>70266.382</v>
       </c>
       <c r="L9" s="1">
-        <v>13.711</v>
+        <v>13.7385</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10425.6462</v>
+        <v>-10424.7947</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0417</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.1934</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>5862.9354</v>
+        <v>5851.118</v>
       </c>
       <c r="F10" s="1">
-        <v>734.5418</v>
+        <v>733.0151</v>
       </c>
       <c r="H10" s="1">
-        <v>83214.9869</v>
+        <v>82881.0861</v>
       </c>
       <c r="I10" s="1">
-        <v>1702.585</v>
+        <v>1699.1787</v>
       </c>
       <c r="J10" s="1">
-        <v>84917.5719</v>
+        <v>84580.2648</v>
       </c>
       <c r="K10" s="1">
-        <v>80692.56110000001</v>
+        <v>80691.1767</v>
       </c>
       <c r="L10" s="1">
-        <v>13.7632</v>
+        <v>13.7907</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10425.6462</v>
+        <v>-10424.7947</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0047</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>14.1176</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E11" s="1">
-        <v>6597.4772</v>
+        <v>6584.1331</v>
       </c>
       <c r="F11" s="1">
-        <v>738.4857</v>
+        <v>736.9481</v>
       </c>
       <c r="H11" s="1">
-        <v>93140.5444</v>
+        <v>92766.48510000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1276.9387</v>
+        <v>1274.384</v>
       </c>
       <c r="J11" s="1">
-        <v>94417.4831</v>
+        <v>94040.8691</v>
       </c>
       <c r="K11" s="1">
-        <v>91118.20729999999</v>
+        <v>91115.97139999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.8111</v>
+        <v>13.8387</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2638.3209</v>
+        <v>2633.0031</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7787.3253</v>
+        <v>-7791.7916</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>15.3311</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E12" s="1">
-        <v>7335.963</v>
+        <v>7321.0813</v>
       </c>
       <c r="F12" s="1">
-        <v>766.0771999999999</v>
+        <v>764.3176999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>112468.3817</v>
+        <v>112015.4716</v>
       </c>
       <c r="I12" s="1">
-        <v>3489.6134</v>
+        <v>3482.5924</v>
       </c>
       <c r="J12" s="1">
-        <v>115957.9951</v>
+        <v>115498.064</v>
       </c>
       <c r="K12" s="1">
-        <v>101543.8535</v>
+        <v>101540.7661</v>
       </c>
       <c r="L12" s="1">
-        <v>13.8419</v>
+        <v>13.8696</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11744.8067</v>
+        <v>-11741.2962</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1105</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>15.3637</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E13" s="1">
-        <v>8102.0402</v>
+        <v>8085.399</v>
       </c>
       <c r="F13" s="1">
-        <v>764.4517</v>
+        <v>762.6942</v>
       </c>
       <c r="H13" s="1">
-        <v>124477.3149</v>
+        <v>123973.4227</v>
       </c>
       <c r="I13" s="1">
-        <v>1744.8067</v>
+        <v>1741.2962</v>
       </c>
       <c r="J13" s="1">
-        <v>126222.1216</v>
+        <v>125714.7189</v>
       </c>
       <c r="K13" s="1">
-        <v>113288.6602</v>
+        <v>113282.0623</v>
       </c>
       <c r="L13" s="1">
-        <v>13.9827</v>
+        <v>14.0107</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11744.8067</v>
+        <v>-11741.2962</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>14.6447</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E14" s="1">
-        <v>8866.491900000001</v>
+        <v>8848.093199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8866.491900000001</v>
+        <v>-8848.093199999999</v>
       </c>
       <c r="H14" s="1">
-        <v>129847.1139</v>
+        <v>129318.4215</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>129847.1139</v>
+        <v>129318.4215</v>
       </c>
       <c r="K14" s="1">
-        <v>125033.4669</v>
+        <v>125023.3585</v>
       </c>
       <c r="L14" s="1">
-        <v>14.1018</v>
+        <v>14.13</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>7291.8362</v>
+        <v>7276.8591</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137138.9501</v>
+        <v>136595.2806</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0468</v>
+        <v>-0.0471</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.3976</v>
       </c>
       <c r="C2" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D2" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.9013</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="F3" s="1">
-        <v>743.6236</v>
+        <v>748.3403</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9593.786</v>
+        <v>-9673.9449</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0406</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.3527</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E4" s="1">
-        <v>1550.2314</v>
+        <v>1553.3377</v>
       </c>
       <c r="F4" s="1">
-        <v>696.5051999999999</v>
+        <v>697.9004</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20699.7744</v>
+        <v>20699.7786</v>
       </c>
       <c r="I4" s="1">
-        <v>406.214</v>
+        <v>326.0551</v>
       </c>
       <c r="J4" s="1">
-        <v>21105.9884</v>
+        <v>21025.8338</v>
       </c>
       <c r="K4" s="1">
-        <v>19593.786</v>
+        <v>19673.9449</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6393</v>
+        <v>12.6656</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9300.2256</v>
+        <v>-9337.558999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0343</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.8804</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E5" s="1">
-        <v>2246.7366</v>
+        <v>2251.2382</v>
       </c>
       <c r="F5" s="1">
-        <v>635.0247000000001</v>
+        <v>636.3064000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31185.6029</v>
+        <v>31185.502</v>
       </c>
       <c r="I5" s="1">
-        <v>1105.9884</v>
+        <v>988.4961</v>
       </c>
       <c r="J5" s="1">
-        <v>32291.5913</v>
+        <v>32173.9981</v>
       </c>
       <c r="K5" s="1">
-        <v>28894.0116</v>
+        <v>29011.5039</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8604</v>
+        <v>12.8869</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>697.6041</v>
+        <v>699.002</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8116.793</v>
+        <v>-8150.8746</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0381</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.6268</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E6" s="1">
-        <v>2881.7613</v>
+        <v>2887.5446</v>
       </c>
       <c r="F6" s="1">
-        <v>536.6214</v>
+        <v>537.676</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>42150.9467</v>
+        <v>42151.2207</v>
       </c>
       <c r="I6" s="1">
-        <v>2989.1954</v>
+        <v>2837.6215</v>
       </c>
       <c r="J6" s="1">
-        <v>45140.1421</v>
+        <v>44988.8422</v>
       </c>
       <c r="K6" s="1">
-        <v>37708.4087</v>
+        <v>37861.3805</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0852</v>
+        <v>13.112</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7849.0533</v>
+        <v>-7880.2333</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0674</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>15.3636</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E7" s="1">
-        <v>3418.3827</v>
+        <v>3425.2206</v>
       </c>
       <c r="F7" s="1">
-        <v>486.952</v>
+        <v>487.9335</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52518.6644</v>
+        <v>52518.5647</v>
       </c>
       <c r="I7" s="1">
-        <v>5140.1421</v>
+        <v>4957.3881</v>
       </c>
       <c r="J7" s="1">
-        <v>57658.8065</v>
+        <v>57475.9528</v>
       </c>
       <c r="K7" s="1">
-        <v>45557.462</v>
+        <v>45741.6138</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3272</v>
+        <v>13.3544</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7481.3356</v>
+        <v>-7511.4432</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0457</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.8711</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E8" s="1">
-        <v>3905.3347</v>
+        <v>3913.1541</v>
       </c>
       <c r="F8" s="1">
-        <v>1141.1288</v>
+        <v>1143.4072</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>54171.288</v>
+        <v>54171.357</v>
       </c>
       <c r="I8" s="1">
-        <v>7658.8065</v>
+        <v>7445.9449</v>
       </c>
       <c r="J8" s="1">
-        <v>61830.0944</v>
+        <v>61617.302</v>
       </c>
       <c r="K8" s="1">
-        <v>53038.7977</v>
+        <v>53253.057</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5811</v>
+        <v>13.6087</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1538.2722</v>
+        <v>1541.3493</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-14290.4398</v>
+        <v>-14350.7528</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0861</v>
+        <v>-0.0868</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>14.1252</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E9" s="1">
-        <v>5046.4635</v>
+        <v>5056.5612</v>
       </c>
       <c r="F9" s="1">
-        <v>617.1731</v>
+        <v>618.4050999999999</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71282.3064</v>
+        <v>71282.34390000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3368.3666</v>
+        <v>3095.1921</v>
       </c>
       <c r="J9" s="1">
-        <v>74650.673</v>
+        <v>74377.53599999999</v>
       </c>
       <c r="K9" s="1">
-        <v>68867.5097</v>
+        <v>69145.1591</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6467</v>
+        <v>13.6743</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8717.693600000001</v>
+        <v>-8752.596</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0393</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.1934</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>5663.6366</v>
+        <v>5674.9663</v>
       </c>
       <c r="F10" s="1">
-        <v>677.3388</v>
+        <v>678.7224</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80386.25999999999</v>
+        <v>80385.8977</v>
       </c>
       <c r="I10" s="1">
-        <v>4650.673</v>
+        <v>4342.5962</v>
       </c>
       <c r="J10" s="1">
-        <v>85036.933</v>
+        <v>84728.4939</v>
       </c>
       <c r="K10" s="1">
-        <v>77585.20329999999</v>
+        <v>77897.75509999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.6988</v>
+        <v>13.7266</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9613.74</v>
+        <v>-9652.653700000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0046</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>14.1176</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E11" s="1">
-        <v>6340.9754</v>
+        <v>6353.6887</v>
       </c>
       <c r="F11" s="1">
-        <v>742.3816</v>
+        <v>743.8456</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>89519.3541</v>
+        <v>89519.6611</v>
       </c>
       <c r="I11" s="1">
-        <v>5036.933</v>
+        <v>4689.9424</v>
       </c>
       <c r="J11" s="1">
-        <v>94556.2871</v>
+        <v>94209.6036</v>
       </c>
       <c r="K11" s="1">
-        <v>87198.9433</v>
+        <v>87550.4088</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7517</v>
+        <v>13.7795</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2548.6365</v>
+        <v>2553.7348</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7932.0095</v>
+        <v>-7968.6313</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0051</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>15.3311</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E12" s="1">
-        <v>7083.3569</v>
+        <v>7097.5343</v>
       </c>
       <c r="F12" s="1">
-        <v>91.6011</v>
+        <v>91.8202</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>108595.6537</v>
+        <v>108595.1141</v>
       </c>
       <c r="I12" s="1">
-        <v>7104.9236</v>
+        <v>6721.3111</v>
       </c>
       <c r="J12" s="1">
-        <v>115700.5772</v>
+        <v>115316.4252</v>
       </c>
       <c r="K12" s="1">
-        <v>97679.5892</v>
+        <v>98072.7749</v>
       </c>
       <c r="L12" s="1">
-        <v>13.79</v>
+        <v>13.8179</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1404.3463</v>
+        <v>-1410.5237</v>
       </c>
       <c r="Q12" s="3">
         <v>0.1066</v>
@@ -2033,34 +2033,34 @@
         <v>15.3637</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E13" s="1">
-        <v>7174.9581</v>
+        <v>7189.3545</v>
       </c>
       <c r="F13" s="1">
-        <v>635.6604</v>
+        <v>636.9026</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110233.9036</v>
+        <v>110234.373</v>
       </c>
       <c r="I13" s="1">
-        <v>15700.5772</v>
+        <v>15310.7874</v>
       </c>
       <c r="J13" s="1">
-        <v>125934.4809</v>
+        <v>125545.1604</v>
       </c>
       <c r="K13" s="1">
-        <v>99083.9356</v>
+        <v>99483.29859999999</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8097</v>
+        <v>13.8376</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9766.0964</v>
+        <v>-9804.7966</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>14.6447</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E14" s="1">
-        <v>7810.6185</v>
+        <v>7826.2571</v>
       </c>
       <c r="F14" s="1">
-        <v>-7810.6185</v>
+        <v>-7826.2571</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114384.1653</v>
+        <v>114383.8779</v>
       </c>
       <c r="I14" s="1">
-        <v>15934.4809</v>
+        <v>15505.9909</v>
       </c>
       <c r="J14" s="1">
-        <v>130318.6461</v>
+        <v>129889.8688</v>
       </c>
       <c r="K14" s="1">
-        <v>108850.0319</v>
+        <v>109288.0952</v>
       </c>
       <c r="L14" s="1">
-        <v>13.9362</v>
+        <v>13.9643</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6457.4623</v>
+        <v>6470.4191</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120841.6276</v>
+        <v>120854.297</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0413</v>
+        <v>-0.0417</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.3976</v>
       </c>
       <c r="C2" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D2" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.9013</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="F3" s="1">
-        <v>747.4992</v>
+        <v>752.2237</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9643.786400000001</v>
+        <v>-9724.1456</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0406</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.3527</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E4" s="1">
-        <v>1554.107</v>
+        <v>1557.2211</v>
       </c>
       <c r="F4" s="1">
-        <v>703.8821</v>
+        <v>705.2921</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20751.5239</v>
+        <v>20751.5281</v>
       </c>
       <c r="I4" s="1">
-        <v>356.2136</v>
+        <v>275.8544</v>
       </c>
       <c r="J4" s="1">
-        <v>21107.7374</v>
+        <v>21027.3825</v>
       </c>
       <c r="K4" s="1">
-        <v>19643.7864</v>
+        <v>19724.1456</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6399</v>
+        <v>12.6662</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9398.7261</v>
+        <v>-9436.455</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0344</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.8804</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E5" s="1">
-        <v>2257.989</v>
+        <v>2262.5131</v>
       </c>
       <c r="F5" s="1">
-        <v>645.4577</v>
+        <v>646.7603</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31341.7908</v>
+        <v>31341.6894</v>
       </c>
       <c r="I5" s="1">
-        <v>957.4874</v>
+        <v>839.3993</v>
       </c>
       <c r="J5" s="1">
-        <v>32299.2782</v>
+        <v>32181.0888</v>
       </c>
       <c r="K5" s="1">
-        <v>29042.5126</v>
+        <v>29160.6007</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8621</v>
+        <v>12.8886</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>699.3481</v>
+        <v>700.7495</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8259.862300000001</v>
+        <v>-8294.522199999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0383</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.6268</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E6" s="1">
-        <v>2903.4467</v>
+        <v>2909.2734</v>
       </c>
       <c r="F6" s="1">
-        <v>549.2912</v>
+        <v>550.371</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>42468.1338</v>
+        <v>42468.41</v>
       </c>
       <c r="I6" s="1">
-        <v>2697.6251</v>
+        <v>2544.8771</v>
       </c>
       <c r="J6" s="1">
-        <v>45165.759</v>
+        <v>45013.2871</v>
       </c>
       <c r="K6" s="1">
-        <v>38001.723</v>
+        <v>38155.8724</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0885</v>
+        <v>13.1153</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8034.3724</v>
+        <v>-8066.293</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0678</v>
+        <v>0.06710000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>15.3636</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E7" s="1">
-        <v>3452.7379</v>
+        <v>3459.6445</v>
       </c>
       <c r="F7" s="1">
-        <v>501.7402</v>
+        <v>502.7513</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>53046.4835</v>
+        <v>53046.3828</v>
       </c>
       <c r="I7" s="1">
-        <v>4663.2527</v>
+        <v>4478.5841</v>
       </c>
       <c r="J7" s="1">
-        <v>57709.7362</v>
+        <v>57524.967</v>
       </c>
       <c r="K7" s="1">
-        <v>46036.0954</v>
+        <v>46222.1654</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3332</v>
+        <v>13.3604</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7708.5353</v>
+        <v>-7739.5552</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0461</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.8711</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E8" s="1">
-        <v>3954.478</v>
+        <v>3962.3958</v>
       </c>
       <c r="F8" s="1">
-        <v>1168.3164</v>
+        <v>1170.6491</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>54852.9603</v>
+        <v>54853.0302</v>
       </c>
       <c r="I8" s="1">
-        <v>6954.7174</v>
+        <v>6739.029</v>
       </c>
       <c r="J8" s="1">
-        <v>61807.6778</v>
+        <v>61592.0592</v>
       </c>
       <c r="K8" s="1">
-        <v>53744.6307</v>
+        <v>53961.7205</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5908</v>
+        <v>13.6185</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1553.732</v>
+        <v>1556.84</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-14652.1015</v>
+        <v>-14713.8947</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0872</v>
+        <v>-0.08790000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>14.1252</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E9" s="1">
-        <v>5122.7944</v>
+        <v>5133.0449</v>
       </c>
       <c r="F9" s="1">
-        <v>640.9532</v>
+        <v>642.2327</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>72360.49589999999</v>
+        <v>72360.5341</v>
       </c>
       <c r="I9" s="1">
-        <v>2302.6159</v>
+        <v>2025.1343</v>
       </c>
       <c r="J9" s="1">
-        <v>74663.1119</v>
+        <v>74385.6684</v>
       </c>
       <c r="K9" s="1">
-        <v>69950.4642</v>
+        <v>70232.4552</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6547</v>
+        <v>13.6824</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9053.591899999999</v>
+        <v>-9089.839900000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0398</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.1934</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>5763.7476</v>
+        <v>5775.2776</v>
       </c>
       <c r="F10" s="1">
-        <v>705.538</v>
+        <v>706.9786</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81807.17539999999</v>
+        <v>81806.8067</v>
       </c>
       <c r="I10" s="1">
-        <v>3249.024</v>
+        <v>2935.2944</v>
       </c>
       <c r="J10" s="1">
-        <v>85056.1995</v>
+        <v>84742.1011</v>
       </c>
       <c r="K10" s="1">
-        <v>79004.0561</v>
+        <v>79322.2951</v>
       </c>
       <c r="L10" s="1">
-        <v>13.7071</v>
+        <v>13.7348</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10013.9829</v>
+        <v>-10054.5079</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0046</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>14.1176</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E11" s="1">
-        <v>6469.2856</v>
+        <v>6482.2561</v>
       </c>
       <c r="F11" s="1">
-        <v>775.5906</v>
+        <v>777.1207000000001</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91330.7864</v>
+        <v>91331.09970000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3235.0412</v>
+        <v>2880.7864</v>
       </c>
       <c r="J11" s="1">
-        <v>94565.8276</v>
+        <v>94211.8861</v>
       </c>
       <c r="K11" s="1">
-        <v>89018.039</v>
+        <v>89376.8031</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7601</v>
+        <v>13.7879</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2593.6864</v>
+        <v>2598.8749</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8355.7912</v>
+        <v>-8394.1968</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0052</v>
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>15.3311</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E12" s="1">
-        <v>7244.8762</v>
+        <v>7259.3768</v>
       </c>
       <c r="F12" s="1">
-        <v>112.1736</v>
+        <v>112.4347</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>111071.9213</v>
+        <v>111071.3694</v>
       </c>
       <c r="I12" s="1">
-        <v>4879.25</v>
+        <v>4486.5897</v>
       </c>
       <c r="J12" s="1">
-        <v>115951.1713</v>
+        <v>115557.9591</v>
       </c>
       <c r="K12" s="1">
-        <v>99967.5166</v>
+        <v>100369.8748</v>
       </c>
       <c r="L12" s="1">
-        <v>13.7984</v>
+        <v>13.8262</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-1719.7441</v>
+        <v>-1727.1995</v>
       </c>
       <c r="Q12" s="3">
         <v>0.1089</v>
@@ -2801,34 +2801,34 @@
         <v>15.3637</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E13" s="1">
-        <v>7357.0497</v>
+        <v>7371.8115</v>
       </c>
       <c r="F13" s="1">
-        <v>671.9813</v>
+        <v>673.2953</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113031.5052</v>
+        <v>113031.9865</v>
       </c>
       <c r="I13" s="1">
-        <v>13159.5059</v>
+        <v>12759.3902</v>
       </c>
       <c r="J13" s="1">
-        <v>126191.0111</v>
+        <v>125791.3767</v>
       </c>
       <c r="K13" s="1">
-        <v>101687.2607</v>
+        <v>102097.0742</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8217</v>
+        <v>13.8497</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10324.1185</v>
+        <v>-10365.0449</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0019</v>
@@ -2854,49 +2854,49 @@
         <v>14.6447</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E14" s="1">
-        <v>8029.031</v>
+        <v>8045.1069</v>
       </c>
       <c r="F14" s="1">
-        <v>-8029.031</v>
+        <v>-8045.1069</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117582.7504</v>
+        <v>117582.455</v>
       </c>
       <c r="I14" s="1">
-        <v>12835.3874</v>
+        <v>12394.3453</v>
       </c>
       <c r="J14" s="1">
-        <v>130418.1378</v>
+        <v>129976.8003</v>
       </c>
       <c r="K14" s="1">
-        <v>112011.3792</v>
+        <v>112462.1191</v>
       </c>
       <c r="L14" s="1">
-        <v>13.9508</v>
+        <v>13.9789</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6621.3448</v>
+        <v>6634.6304</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124204.0952</v>
+        <v>124217.0854</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>-0.0428</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.3976</v>
       </c>
       <c r="C2" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D2" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.9013</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="F3" s="1">
-        <v>751.3748000000001</v>
+        <v>756.107</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9693.7868</v>
+        <v>-9774.3464</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0406</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.3527</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E4" s="1">
-        <v>1557.9825</v>
+        <v>1561.1044</v>
       </c>
       <c r="F4" s="1">
-        <v>711.2963</v>
+        <v>712.7212</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20803.2733</v>
+        <v>20803.2775</v>
       </c>
       <c r="I4" s="1">
-        <v>306.2132</v>
+        <v>225.6536</v>
       </c>
       <c r="J4" s="1">
-        <v>21109.4865</v>
+        <v>21028.9311</v>
       </c>
       <c r="K4" s="1">
-        <v>19693.7868</v>
+        <v>19774.3464</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6406</v>
+        <v>12.6669</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9497.726699999999</v>
+        <v>-9535.852999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0345</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.8804</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E5" s="1">
-        <v>2269.2789</v>
+        <v>2273.8256</v>
       </c>
       <c r="F5" s="1">
-        <v>655.9978</v>
+        <v>657.3216</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31498.4985</v>
+        <v>31498.3966</v>
       </c>
       <c r="I5" s="1">
-        <v>808.4865</v>
+        <v>689.8006</v>
       </c>
       <c r="J5" s="1">
-        <v>32306.985</v>
+        <v>32188.1971</v>
       </c>
       <c r="K5" s="1">
-        <v>29191.5135</v>
+        <v>29310.1994</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8638</v>
+        <v>12.8903</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>701.0921</v>
+        <v>702.497</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8404.419400000001</v>
+        <v>-8439.663500000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0385</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.6268</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E6" s="1">
-        <v>2925.2766</v>
+        <v>2931.1472</v>
       </c>
       <c r="F6" s="1">
-        <v>562.1608</v>
+        <v>563.2663</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42787.4365</v>
+        <v>42787.7147</v>
       </c>
       <c r="I6" s="1">
-        <v>2404.0671</v>
+        <v>2250.137</v>
       </c>
       <c r="J6" s="1">
-        <v>45191.5036</v>
+        <v>45037.8517</v>
       </c>
       <c r="K6" s="1">
-        <v>38297.025</v>
+        <v>38452.36</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0918</v>
+        <v>13.1185</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8222.613600000001</v>
+        <v>-8255.2865</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0682</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>15.3636</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E7" s="1">
-        <v>3487.4375</v>
+        <v>3494.4135</v>
       </c>
       <c r="F7" s="1">
-        <v>516.8422</v>
+        <v>517.8837</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53579.594</v>
+        <v>53579.4923</v>
       </c>
       <c r="I7" s="1">
-        <v>4181.4535</v>
+        <v>3994.8505</v>
       </c>
       <c r="J7" s="1">
-        <v>57761.0475</v>
+        <v>57574.3429</v>
       </c>
       <c r="K7" s="1">
-        <v>46519.6387</v>
+        <v>46707.6465</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3392</v>
+        <v>13.3664</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7940.5566</v>
+        <v>-7972.5081</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0466</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.8711</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E8" s="1">
-        <v>4004.2796</v>
+        <v>4012.2971</v>
       </c>
       <c r="F8" s="1">
-        <v>1170.8442</v>
+        <v>1152.7777</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>55543.7632</v>
+        <v>55543.834</v>
       </c>
       <c r="I8" s="1">
-        <v>6240.8969</v>
+        <v>6022.3424</v>
       </c>
       <c r="J8" s="1">
-        <v>61784.6601</v>
+        <v>61566.1764</v>
       </c>
       <c r="K8" s="1">
-        <v>54460.1952</v>
+        <v>54680.1546</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6005</v>
+        <v>13.6281</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1569.3469</v>
+        <v>1572.4861</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-14671.55</v>
+        <v>-14449.8564</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0882</v>
+        <v>-0.08890000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>14.1252</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E9" s="1">
-        <v>5175.1238</v>
+        <v>5165.0749</v>
       </c>
       <c r="F9" s="1">
-        <v>690.7546</v>
+        <v>712.5377999999999</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73099.6591</v>
+        <v>72812.0603</v>
       </c>
       <c r="I9" s="1">
-        <v>1569.3469</v>
+        <v>1572.4861</v>
       </c>
       <c r="J9" s="1">
-        <v>74669.00599999999</v>
+        <v>74384.5463</v>
       </c>
       <c r="K9" s="1">
-        <v>70701.09209999999</v>
+        <v>70702.497</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6617</v>
+        <v>13.6886</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9757.0465</v>
+        <v>-10084.9037</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0402</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.1934</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>5865.8784</v>
+        <v>5877.6127</v>
       </c>
       <c r="F10" s="1">
-        <v>734.7439000000001</v>
+        <v>736.2435</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83256.7585</v>
+        <v>83256.3833</v>
       </c>
       <c r="I10" s="1">
-        <v>1812.3003</v>
+        <v>1487.5823</v>
       </c>
       <c r="J10" s="1">
-        <v>85069.0589</v>
+        <v>84743.9656</v>
       </c>
       <c r="K10" s="1">
-        <v>80458.1387</v>
+        <v>80787.4007</v>
       </c>
       <c r="L10" s="1">
-        <v>13.7163</v>
+        <v>13.7449</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10428.5141</v>
+        <v>-10470.708</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0047</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>14.1176</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E11" s="1">
-        <v>6600.6223</v>
+        <v>6613.8562</v>
       </c>
       <c r="F11" s="1">
-        <v>806.3542</v>
+        <v>778.8033</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93184.9455</v>
+        <v>93185.26519999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1383.7862</v>
+        <v>1016.8743</v>
       </c>
       <c r="J11" s="1">
-        <v>94568.7317</v>
+        <v>94202.1394</v>
       </c>
       <c r="K11" s="1">
-        <v>90886.6528</v>
+        <v>91258.1088</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7694</v>
+        <v>13.798</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2639.6453</v>
+        <v>2644.9257</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8744.1409</v>
+        <v>-8371.9486</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>15.3311</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E12" s="1">
-        <v>7406.9765</v>
+        <v>7392.6595</v>
       </c>
       <c r="F12" s="1">
-        <v>137.7102</v>
+        <v>167.1655</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113557.0977</v>
+        <v>113110.6477</v>
       </c>
       <c r="I12" s="1">
-        <v>2639.6453</v>
+        <v>2644.9257</v>
       </c>
       <c r="J12" s="1">
-        <v>116196.743</v>
+        <v>115755.5734</v>
       </c>
       <c r="K12" s="1">
-        <v>102270.439</v>
+        <v>102274.9831</v>
       </c>
       <c r="L12" s="1">
-        <v>13.8073</v>
+        <v>13.8347</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-2111.249</v>
+        <v>-2567.9629</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1112</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>15.3637</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E13" s="1">
-        <v>7544.6867</v>
+        <v>7559.825</v>
       </c>
       <c r="F13" s="1">
-        <v>710.1627</v>
+        <v>711.5524</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115914.3035</v>
+        <v>115914.797</v>
       </c>
       <c r="I13" s="1">
-        <v>10528.3963</v>
+        <v>10076.9628</v>
       </c>
       <c r="J13" s="1">
-        <v>126442.6998</v>
+        <v>125991.7598</v>
       </c>
       <c r="K13" s="1">
-        <v>104381.688</v>
+        <v>104842.9459</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8351</v>
+        <v>13.8684</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10910.7267</v>
+        <v>-10953.9936</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0019</v>
@@ -3622,49 +3622,49 @@
         <v>14.6447</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E14" s="1">
-        <v>8254.849399999999</v>
+        <v>8271.377399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8254.849399999999</v>
+        <v>-8271.377399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120889.7934</v>
+        <v>120889.4897</v>
       </c>
       <c r="I14" s="1">
-        <v>9617.669599999999</v>
+        <v>9122.9692</v>
       </c>
       <c r="J14" s="1">
-        <v>130507.463</v>
+        <v>130012.4589</v>
       </c>
       <c r="K14" s="1">
-        <v>115292.4146</v>
+        <v>115796.9396</v>
       </c>
       <c r="L14" s="1">
-        <v>13.9666</v>
+        <v>13.9997</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6790.2181</v>
+        <v>6803.8425</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127680.0114</v>
+        <v>127693.3322</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0435</v>
+        <v>-0.044</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.3976</v>
       </c>
       <c r="C2" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D2" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.9013</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E3" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="F3" s="1">
-        <v>755.2504</v>
+        <v>759.9903</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10406.2883</v>
+        <v>10364.7443</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9743.787200000001</v>
+        <v>-9824.547200000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0406</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.3527</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E4" s="1">
-        <v>1561.8581</v>
+        <v>1564.9878</v>
       </c>
       <c r="F4" s="1">
-        <v>718.7481</v>
+        <v>720.1878</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20855.0227</v>
+        <v>20855.027</v>
       </c>
       <c r="I4" s="1">
-        <v>256.2128</v>
+        <v>175.4528</v>
       </c>
       <c r="J4" s="1">
-        <v>21111.2355</v>
+        <v>21030.4798</v>
       </c>
       <c r="K4" s="1">
-        <v>19743.7872</v>
+        <v>19824.5472</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6412</v>
+        <v>12.6675</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9597.2273</v>
+        <v>-9635.7531</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0345</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.8804</v>
       </c>
       <c r="C5" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D5" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E5" s="1">
-        <v>2280.6062</v>
+        <v>2285.1756</v>
       </c>
       <c r="F5" s="1">
-        <v>666.6455999999999</v>
+        <v>667.9909</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31655.7259</v>
+        <v>31655.6235</v>
       </c>
       <c r="I5" s="1">
-        <v>658.9855</v>
+        <v>539.6998</v>
       </c>
       <c r="J5" s="1">
-        <v>32314.7114</v>
+        <v>32195.3232</v>
       </c>
       <c r="K5" s="1">
-        <v>29341.0145</v>
+        <v>29460.3002</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8654</v>
+        <v>12.8919</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>702.8361</v>
+        <v>704.2445</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8550.4717</v>
+        <v>-8586.3061</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0387</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.6268</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E6" s="1">
-        <v>2947.2518</v>
+        <v>2953.1665</v>
       </c>
       <c r="F6" s="1">
-        <v>575.2322</v>
+        <v>576.3637</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>43108.8625</v>
+        <v>43109.1428</v>
       </c>
       <c r="I6" s="1">
-        <v>2108.5138</v>
+        <v>1953.3937</v>
       </c>
       <c r="J6" s="1">
-        <v>45217.3763</v>
+        <v>45062.5365</v>
       </c>
       <c r="K6" s="1">
-        <v>38594.3223</v>
+        <v>38750.8508</v>
       </c>
       <c r="L6" s="1">
-        <v>13.095</v>
+        <v>13.1218</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8413.8068</v>
+        <v>-8447.2438</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.06859999999999999</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>15.3636</v>
       </c>
       <c r="C7" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D7" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E7" s="1">
-        <v>3522.484</v>
+        <v>3529.5301</v>
       </c>
       <c r="F7" s="1">
-        <v>532.2628999999999</v>
+        <v>533.3353</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>54118.0355</v>
+        <v>54117.9328</v>
       </c>
       <c r="I7" s="1">
-        <v>3694.707</v>
+        <v>3506.1499</v>
       </c>
       <c r="J7" s="1">
-        <v>57812.7425</v>
+        <v>57624.0827</v>
       </c>
       <c r="K7" s="1">
-        <v>47008.1291</v>
+        <v>47198.0946</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3452</v>
+        <v>13.3723</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8177.4738</v>
+        <v>-8210.3766</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.047</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.8711</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E8" s="1">
-        <v>4054.7469</v>
+        <v>4062.8654</v>
       </c>
       <c r="F8" s="1">
-        <v>1118.6736</v>
+        <v>1100.5024</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56243.7996</v>
+        <v>56243.8712</v>
       </c>
       <c r="I8" s="1">
-        <v>5517.2332</v>
+        <v>5295.7733</v>
       </c>
       <c r="J8" s="1">
-        <v>61761.0328</v>
+        <v>61539.6445</v>
       </c>
       <c r="K8" s="1">
-        <v>55185.6029</v>
+        <v>55408.4712</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6101</v>
+        <v>13.6378</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1585.1178</v>
+        <v>1588.2886</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-13932.1154</v>
+        <v>-13707.4847</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0892</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>14.1252</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E9" s="1">
-        <v>5173.4205</v>
+        <v>5163.3679</v>
       </c>
       <c r="F9" s="1">
-        <v>796.6466</v>
+        <v>818.6419</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73075.5989</v>
+        <v>72787.9967</v>
       </c>
       <c r="I9" s="1">
-        <v>1585.1178</v>
+        <v>1588.2886</v>
       </c>
       <c r="J9" s="1">
-        <v>74660.7167</v>
+        <v>74376.2853</v>
       </c>
       <c r="K9" s="1">
-        <v>70702.8361</v>
+        <v>70704.2445</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6666</v>
+        <v>13.6934</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11252.7921</v>
+        <v>-11586.6476</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0404</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.1934</v>
       </c>
       <c r="C10" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D10" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>5970.067</v>
+        <v>5982.0097</v>
       </c>
       <c r="F10" s="1">
-        <v>727.9669</v>
+        <v>703.2613</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84735.5496</v>
+        <v>84735.16770000001</v>
       </c>
       <c r="I10" s="1">
-        <v>332.3257</v>
+        <v>1.641</v>
       </c>
       <c r="J10" s="1">
-        <v>85067.8753</v>
+        <v>84736.80869999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81955.6283</v>
+        <v>82290.8921</v>
       </c>
       <c r="L10" s="1">
-        <v>13.7278</v>
+        <v>13.7564</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10332.3257</v>
+        <v>-10001.641</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0048</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>14.1176</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E11" s="1">
-        <v>6698.034</v>
+        <v>6685.271</v>
       </c>
       <c r="F11" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94560.1643</v>
+        <v>94191.45699999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94560.1643</v>
+        <v>94191.45699999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92287.954</v>
+        <v>92292.5331</v>
       </c>
       <c r="L11" s="1">
-        <v>13.7784</v>
+        <v>13.8054</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2686.5302</v>
+        <v>2691.9044</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7313.4698</v>
+        <v>-7308.0956</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>15.3311</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E12" s="1">
-        <v>7406.3697</v>
+        <v>7392.1896</v>
       </c>
       <c r="F12" s="1">
-        <v>331.6677</v>
+        <v>361.374</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113547.7939</v>
+        <v>113103.4577</v>
       </c>
       <c r="I12" s="1">
-        <v>2686.5302</v>
+        <v>2691.9044</v>
       </c>
       <c r="J12" s="1">
-        <v>116234.3241</v>
+        <v>115795.362</v>
       </c>
       <c r="K12" s="1">
-        <v>102287.954</v>
+        <v>102292.5331</v>
       </c>
       <c r="L12" s="1">
-        <v>13.8108</v>
+        <v>13.8379</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5084.831</v>
+        <v>-5551.3556</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1117</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>15.3637</v>
       </c>
       <c r="C13" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D13" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E13" s="1">
-        <v>7738.0374</v>
+        <v>7753.5636</v>
       </c>
       <c r="F13" s="1">
-        <v>750.2899</v>
+        <v>751.7592</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118884.885</v>
+        <v>118885.3911</v>
       </c>
       <c r="I13" s="1">
-        <v>7601.6992</v>
+        <v>7140.5487</v>
       </c>
       <c r="J13" s="1">
-        <v>126486.5841</v>
+        <v>126025.9398</v>
       </c>
       <c r="K13" s="1">
-        <v>107372.785</v>
+        <v>107843.8887</v>
       </c>
       <c r="L13" s="1">
-        <v>13.876</v>
+        <v>13.9089</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11527.2294</v>
+        <v>-11572.9564</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>14.6447</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E14" s="1">
-        <v>8488.327300000001</v>
+        <v>8505.3228</v>
       </c>
       <c r="F14" s="1">
-        <v>-8488.327300000001</v>
+        <v>-8505.3228</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124309.007</v>
+        <v>124308.6947</v>
       </c>
       <c r="I14" s="1">
-        <v>6074.4698</v>
+        <v>5567.5924</v>
       </c>
       <c r="J14" s="1">
-        <v>130383.4768</v>
+        <v>129876.287</v>
       </c>
       <c r="K14" s="1">
-        <v>118900.0143</v>
+        <v>119416.8451</v>
       </c>
       <c r="L14" s="1">
-        <v>14.0075</v>
+        <v>14.0402</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6964.2336</v>
+        <v>6978.2073</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131273.2406</v>
+        <v>131286.9019</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0447</v>
+        <v>-0.0452</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1018</v>
+        <v>14.13</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9362</v>
+        <v>13.9643</v>
       </c>
       <c r="E3" s="1">
-        <v>13.9508</v>
+        <v>13.9789</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9666</v>
+        <v>13.9997</v>
       </c>
       <c r="G3" s="1">
-        <v>14.0075</v>
+        <v>14.0402</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1812</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2462</v>
+        <v>0.2338</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2458</v>
+        <v>0.235</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2477</v>
+        <v>0.2367</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2494</v>
+        <v>0.2379</v>
       </c>
       <c r="G4" s="3">
-        <v>0.249</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1629</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1798</v>
+        <v>0.1791</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1672</v>
+        <v>0.1668</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1697</v>
+        <v>0.1693</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1722</v>
+        <v>0.1717</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1738</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.9878</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2558</v>
+        <v>1.1921</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3489</v>
+        <v>1.2869</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3399</v>
+        <v>1.2777</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3303</v>
+        <v>1.2667</v>
       </c>
       <c r="G6" s="4">
-        <v>1.3159</v>
+        <v>1.2517</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2783</v>
+        <v>0.2691</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2943</v>
+        <v>0.2856</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2933</v>
+        <v>0.2845</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2923</v>
+        <v>0.283</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2889</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>12325.3031</v>
+        <v>12300.2176</v>
       </c>
       <c r="D8" s="1">
-        <v>11241.9751</v>
+        <v>11264.5052</v>
       </c>
       <c r="E8" s="1">
-        <v>11468.1114</v>
+        <v>11491.0948</v>
       </c>
       <c r="F8" s="1">
-        <v>11700.3023</v>
+        <v>11723.7513</v>
       </c>
       <c r="G8" s="1">
-        <v>11938.7178</v>
+        <v>11962.6447</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P33_KFSDIV.xlsx
+++ b/output/1Y_P33_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.3976</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.9013</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3527</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8804</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6268</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3636</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8711</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1252</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1934</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1176</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3311</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3637</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6447</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.3976</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.9013</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3527</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8804</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6268</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3636</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8711</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1252</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1934</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1176</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3311</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3637</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6447</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.3976</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.9013</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3527</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8804</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6268</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3636</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8711</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1252</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1934</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1176</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3311</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3637</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6447</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.3976</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.9013</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3527</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8804</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6268</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3636</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8711</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1252</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1934</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1176</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3311</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3637</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6447</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.3976</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.9013</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3527</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8804</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6268</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15.3636</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8711</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1252</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1934</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1176</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3311</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3637</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6447</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>13537.8173</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0339</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1962</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1634</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1313</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
